--- a/02_Simulation/Source_Data/HD-tDCS_individ_radius5cm_mni2subj.xlsx
+++ b/02_Simulation/Source_Data/HD-tDCS_individ_radius5cm_mni2subj.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="VerFlu_HM_Kopf" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="62">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -151,9 +151,6 @@
     <t xml:space="preserve">sub-24</t>
   </si>
   <si>
-    <t xml:space="preserve">sub-25</t>
-  </si>
-  <si>
     <t xml:space="preserve">sub-26</t>
   </si>
   <si>
@@ -184,12 +181,6 @@
     <t xml:space="preserve">sub-30</t>
   </si>
   <si>
-    <t xml:space="preserve">sub-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub-36</t>
-  </si>
-  <si>
     <t xml:space="preserve">sub-37</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t xml:space="preserve">sub-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub-42</t>
   </si>
   <si>
     <t xml:space="preserve">sub-43</t>
@@ -221,9 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">sub-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub-05</t>
   </si>
 </sst>
 </file>
@@ -353,15 +338,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="6.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="6.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1578,40 +1563,40 @@
         <v>19</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-58.184440612793</v>
+        <v>-60.9528961181641</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-32.2558670043945</v>
+        <v>-40.700023651123</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>84.1610260009766</v>
+        <v>47.6004638671875</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-21.459161</v>
+        <v>-26.8345936666667</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>-34.180908</v>
+        <v>-45.286321</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>109.878123</v>
+        <v>76.352679</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>-61.3722623333333</v>
+        <v>-64.2951993333333</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>5.703965</v>
+        <v>-0.899706333333333</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>60.556006</v>
+        <v>28.9294703333333</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>-66.673719</v>
+        <v>-65.3937096666667</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>-68.165581</v>
+        <v>-76.0024286666667</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>61.385157</v>
+        <v>20.1070886666667</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1628,40 +1613,40 @@
         <v>19</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>-60.9528961181641</v>
+        <v>-62.7915229797363</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-40.700023651123</v>
+        <v>-25.3775997161865</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>47.6004638671875</v>
+        <v>80.4935836791992</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>-26.8345936666667</v>
+        <v>-27.853606</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>-45.286321</v>
+        <v>-28.549942</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>76.352679</v>
+        <v>108.396789666667</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>-64.2951993333333</v>
+        <v>-68.233706</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>-0.899706333333333</v>
+        <v>15.6453343333333</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>28.9294703333333</v>
+        <v>61.2074863333333</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>-65.3937096666667</v>
+        <v>-69.8136926666667</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>-76.0024286666667</v>
+        <v>-59.6529096666667</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>20.1070886666667</v>
+        <v>54.0882326666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1678,40 +1663,40 @@
         <v>19</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>-62.7915229797363</v>
+        <v>-60.2523536682129</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-25.3775997161865</v>
+        <v>-24.7459583282471</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>80.4935836791992</v>
+        <v>62.1120071411133</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>-27.853606</v>
+        <v>-22.554053</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>-28.549942</v>
+        <v>-27.414071</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>108.396789666667</v>
+        <v>86.1051176666667</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-68.233706</v>
+        <v>-63.278338</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>15.6453343333333</v>
+        <v>12.7988273333333</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>61.2074863333333</v>
+        <v>38.4081296666667</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>-69.8136926666667</v>
+        <v>-67.9764226666667</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-59.6529096666667</v>
+        <v>-61.3182133333333</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>54.0882326666667</v>
+        <v>39.1131233333333</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1728,40 +1713,40 @@
         <v>19</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>-60.2523536682129</v>
+        <v>-59.5963668823242</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-24.7459583282471</v>
+        <v>-25.6314811706543</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>62.1120071411133</v>
+        <v>74.5720748901367</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>-22.554053</v>
+        <v>-23.461059</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>-27.414071</v>
+        <v>-28.9897383333333</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>86.1051176666667</v>
+        <v>101.456893666667</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>-63.278338</v>
+        <v>-63.768748</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>12.7988273333333</v>
+        <v>13.4378273333333</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>38.4081296666667</v>
+        <v>52.4133643333333</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>-67.9764226666667</v>
+        <v>-67.6216023333333</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>-61.3182133333333</v>
+        <v>-62.5106646666667</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>39.1131233333333</v>
+        <v>51.382099</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1778,40 +1763,40 @@
         <v>19</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>-59.5963668823242</v>
+        <v>-62.0701560974121</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-25.6314811706543</v>
+        <v>-29.3944683074951</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>74.5720748901367</v>
+        <v>69.1950759887695</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>-23.461059</v>
+        <v>-28.491499</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>-28.9897383333333</v>
+        <v>-29.4061583333333</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>101.456893666667</v>
+        <v>99.3112006666666</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>-63.768748</v>
+        <v>-63.6650883333333</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>13.4378273333333</v>
+        <v>6.82221566666667</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>52.4133643333333</v>
+        <v>44.017755</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>-67.6216023333333</v>
+        <v>-67.9684903333333</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>-62.5106646666667</v>
+        <v>-67.994288</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>51.382099</v>
+        <v>49.1641033333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1828,40 +1813,40 @@
         <v>19</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>-62.0701560974121</v>
+        <v>-64.6267547607422</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-29.3944683074951</v>
+        <v>-28.6036415100098</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>69.1950759887695</v>
+        <v>71.2875061035156</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>-28.491499</v>
+        <v>-31.332697</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>-29.4061583333333</v>
+        <v>-24.4758676666667</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>99.3112006666666</v>
+        <v>100.697169</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-63.6650883333333</v>
+        <v>-66.869283</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>6.82221566666667</v>
+        <v>5.69350466666667</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>44.017755</v>
+        <v>42.718726</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>-67.9684903333333</v>
+        <v>-66.2883503333333</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>-67.994288</v>
+        <v>-68.746567</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>49.1641033333333</v>
+        <v>53.493988</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1878,92 +1863,43 @@
         <v>19</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>-64.6267547607422</v>
+        <v>-62.8507652282715</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-28.6036415100098</v>
+        <v>-20.9195156097412</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>71.2875061035156</v>
+        <v>77.8002853393555</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>-31.332697</v>
+        <v>-29.1694743333333</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>-24.4758676666667</v>
+        <v>-22.5616596666667</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>100.697169</v>
+        <v>106.235621</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>-66.869283</v>
+        <v>-63.461704</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>5.69350466666667</v>
+        <v>16.078941</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>42.718726</v>
+        <v>51.6342733333333</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>-66.2883503333333</v>
+        <v>-73.4178466666667</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-68.746567</v>
+        <v>-58.9079196666667</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>53.493988</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>-62.8507652282715</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>-20.9195156097412</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>77.8002853393555</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>-29.1694743333333</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>-22.5616596666667</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>106.235621</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>-63.461704</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>16.078941</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>51.6342733333333</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>-73.4178466666667</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>-58.9079196666667</v>
-      </c>
-      <c r="P32" s="3" t="n">
         <v>57.7189876666667</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1980,10 +1916,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2052,7 +1988,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>-56.7939834594727</v>
@@ -2102,7 +2038,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>-60.9786376953125</v>
@@ -2152,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>-61.1531410217285</v>
@@ -2202,7 +2138,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="n">
         <v>-57.5393905639649</v>
@@ -2252,7 +2188,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3" t="n">
         <v>-57.2581748962402</v>
@@ -2302,7 +2238,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3" t="n">
         <v>-55.63525390625</v>
@@ -2352,7 +2288,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="3" t="n">
         <v>-58.4275512695313</v>
@@ -2402,7 +2338,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="3" t="n">
         <v>-57.2298736572266</v>
@@ -2452,7 +2388,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="n">
         <v>-60.1855926513672</v>
@@ -2502,7 +2438,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="3" t="n">
         <v>-58.7042083740234</v>
@@ -2552,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="3" t="n">
         <v>-62.9752807617188</v>
@@ -2602,7 +2538,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="3" t="n">
         <v>-57.0066375732422</v>
@@ -2652,7 +2588,7 @@
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3" t="n">
         <v>-58.3946876525879</v>
@@ -2702,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="3" t="n">
         <v>-53.5257835388184</v>
@@ -2752,7 +2688,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="n">
         <v>-65.064079284668</v>
@@ -2802,7 +2738,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="n">
         <v>-69.405517578125</v>
@@ -2852,7 +2788,7 @@
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="n">
         <v>-56.4398231506348</v>
@@ -2902,7 +2838,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="3" t="n">
         <v>-57.8606605529785</v>
@@ -2952,7 +2888,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="3" t="n">
         <v>-56.0064315795898</v>
@@ -3002,7 +2938,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="3" t="n">
         <v>-64.9383239746094</v>
@@ -3052,7 +2988,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3" t="n">
         <v>-59.8014602661133</v>
@@ -3102,7 +3038,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3" t="n">
         <v>-60.2306823730469</v>
@@ -3152,7 +3088,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3" t="n">
         <v>-68.2099075317383</v>
@@ -3202,43 +3138,43 @@
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-61.6305351257324</v>
+        <v>-61.3039093017578</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>-30.1183452606201</v>
+        <v>-44.8867683410645</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>75.8214340209961</v>
+        <v>47.4635238647461</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-26.303239</v>
+        <v>-27.8595243333333</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>-34.7408026666667</v>
+        <v>-49.7438673333333</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>102.652824333333</v>
+        <v>76.586601</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>-61.9606016666667</v>
+        <v>-64.231683</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>7.44084566666667</v>
+        <v>-3.97213733333333</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>52.1534436666667</v>
+        <v>28.835201</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>-72.0069656666667</v>
+        <v>-65.777908</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>-67.1505736666667</v>
+        <v>-79.7440263333333</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>53.5393386666667</v>
+        <v>19.7870583333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3252,43 +3188,43 @@
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>-61.3039093017578</v>
+        <v>-61.3510856628418</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>-44.8867683410645</v>
+        <v>-30.7459716796875</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>47.4635238647461</v>
+        <v>63.2363357543945</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>-27.8595243333333</v>
+        <v>-26.638722</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>-49.7438673333333</v>
+        <v>-31.42249</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>76.586601</v>
+        <v>91.9618403333333</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>-64.231683</v>
+        <v>-69.4853873333333</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>-3.97213733333333</v>
+        <v>8.076775</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>28.835201</v>
+        <v>42.9528986666667</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>-65.777908</v>
+        <v>-65.8765943333333</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>-79.7440263333333</v>
+        <v>-67.7172646666667</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>19.7870583333333</v>
+        <v>37.7954216666667</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3302,43 +3238,43 @@
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>-61.3510856628418</v>
+        <v>-63.3366279602051</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>-30.7459716796875</v>
+        <v>-30.2610721588135</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>63.2363357543945</v>
+        <v>58.8589515686035</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>-26.638722</v>
+        <v>-26.6509276666667</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>-31.42249</v>
+        <v>-30.8154103333333</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>91.9618403333333</v>
+        <v>84.6652553333333</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-69.4853873333333</v>
+        <v>-68.5271226666667</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>8.076775</v>
+        <v>7.08745266666667</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>42.9528986666667</v>
+        <v>35.1425373333333</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>-65.8765943333333</v>
+        <v>-69.393791</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-67.7172646666667</v>
+        <v>-67.9633306666667</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>37.7954216666667</v>
+        <v>37.5088003333333</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3352,43 +3288,43 @@
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>-63.3366279602051</v>
+        <v>-59.2352485656738</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>-30.2610721588135</v>
+        <v>-21.1030750274658</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>58.8589515686035</v>
+        <v>75.5318374633789</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>-26.6509276666667</v>
+        <v>-23.561391</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>-30.8154103333333</v>
+        <v>-23.6943136666667</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>84.6652553333333</v>
+        <v>104.034144</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>-68.5271226666667</v>
+        <v>-61.955343</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>7.08745266666667</v>
+        <v>17.8328913333333</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>35.1425373333333</v>
+        <v>53.7129136666667</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>-69.393791</v>
+        <v>-66.6322553333333</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>-67.9633306666667</v>
+        <v>-58.5959206666667</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>37.5088003333333</v>
+        <v>52.0421916666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3402,43 +3338,43 @@
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>-59.2352485656738</v>
+        <v>-58.0073356628418</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>-21.1030750274658</v>
+        <v>-34.787353515625</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>75.5318374633789</v>
+        <v>67.19384765625</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>-23.561391</v>
+        <v>-23.7978743333333</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>-23.6943136666667</v>
+        <v>-36.5408556666667</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>104.034144</v>
+        <v>95.2220763333333</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>-61.955343</v>
+        <v>-60.6598866666667</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>17.8328913333333</v>
+        <v>3.078472</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>53.7129136666667</v>
+        <v>42.4048293333333</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>-66.6322553333333</v>
+        <v>-65.8773653333333</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>-58.5959206666667</v>
+        <v>-72.232923</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>52.0421916666667</v>
+        <v>45.2066166666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3452,43 +3388,43 @@
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>-58.0073356628418</v>
+        <v>-57.877311706543</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>-34.787353515625</v>
+        <v>-33.4116401672363</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>67.19384765625</v>
+        <v>68.9408798217773</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>-23.7978743333333</v>
+        <v>-23.1498183333333</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>-36.5408556666667</v>
+        <v>-31.453338</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>95.2220763333333</v>
+        <v>96.298121</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-60.6598866666667</v>
+        <v>-62.0288696666667</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>3.078472</v>
+        <v>2.75701766666667</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>42.4048293333333</v>
+        <v>43.2745923333333</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>-65.8773653333333</v>
+        <v>-61.5346946666667</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>-72.232923</v>
+        <v>-72.274124</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>45.2066166666667</v>
+        <v>48.1254896666667</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3502,95 +3438,46 @@
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>-57.877311706543</v>
+        <v>-63.8030586242676</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>-33.4116401672363</v>
+        <v>-26.8295631408691</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>68.9408798217773</v>
+        <v>53.2126350402832</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>-23.1498183333333</v>
+        <v>-29.5275153333333</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>-31.453338</v>
+        <v>-27.142822</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>96.298121</v>
+        <v>82.251887</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>-62.0288696666667</v>
+        <v>-66.148074</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>2.75701766666667</v>
+        <v>10.8420653333333</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>43.2745923333333</v>
+        <v>28.7335123333333</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>-61.5346946666667</v>
+        <v>-71.777214</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-72.274124</v>
+        <v>-64.4407473333333</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>48.1254896666667</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>-63.8030586242676</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>-26.8295631408691</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>53.2126350402832</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>-29.5275153333333</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>-27.142822</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>82.251887</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>-66.148074</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>10.8420653333333</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>28.7335123333333</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>-71.777214</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>-64.4407473333333</v>
-      </c>
-      <c r="P32" s="3" t="n">
         <v>32.7140663333333</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3607,10 +3494,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3673,7 +3560,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -3720,10 +3607,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -3732,48 +3619,48 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>-61.5932960510254</v>
+        <v>-61.3543739318848</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>24.1365737915039</v>
+        <v>24.0438709259033</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>38.6136627197266</v>
+        <v>24.1966037750244</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>-35.0534123333333</v>
+        <v>-33.181909</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>53.66405</v>
+        <v>48.321238</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>59.848352</v>
+        <v>48.342412</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>-69.0830766666667</v>
+        <v>-61.9786513333333</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>30.7009246666667</v>
+        <v>32.2199156666667</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>-5.163198</v>
+        <v>-19.8958206666667</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>-67.300766</v>
+        <v>-72.0894013333333</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>-16.9232616666667</v>
+        <v>-16.6319543333333</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>56.4926413333333</v>
+        <v>39.056698</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -3782,48 +3669,48 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>-69.0850067138672</v>
+        <v>-70.0917205810547</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>20.9687767028809</v>
+        <v>14.9795017242432</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>49.0220832824707</v>
+        <v>19.9517345428467</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>-42.1963133333333</v>
+        <v>-42.3736966666667</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>45.1614086666667</v>
+        <v>43.077089</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>73.8011016666667</v>
+        <v>41.117894</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>-72.4323806666667</v>
+        <v>-74.798757</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>32.6801343333333</v>
+        <v>21.2420266666667</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>5.53982566666667</v>
+        <v>-24.5682513333333</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>-72.6020886666667</v>
+        <v>-73.868019</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>-22.3144603333333</v>
+        <v>-25.7954406666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>59.0142363333333</v>
+        <v>35.9847463333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -3832,48 +3719,48 @@
         <v>19</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>-61.3543739318848</v>
+        <v>-61.4253807067871</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>24.0438709259033</v>
+        <v>20.7091293334961</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>24.1966037750244</v>
+        <v>42.4309272766113</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>-33.181909</v>
+        <v>-32.585879</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>48.321238</v>
+        <v>49.068465</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>48.342412</v>
+        <v>61.0641186666667</v>
       </c>
       <c r="K5" s="3" t="n">
-        <v>-61.9786513333333</v>
+        <v>-65.5715966666667</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>32.2199156666667</v>
+        <v>22.9923056666667</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>-19.8958206666667</v>
+        <v>-1.836704</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>-72.0894013333333</v>
+        <v>-66.4354146666667</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>-16.6319543333333</v>
+        <v>-19.165589</v>
       </c>
       <c r="P5" s="3" t="n">
-        <v>39.056698</v>
+        <v>62.7383573333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -3882,48 +3769,48 @@
         <v>19</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>-70.0917205810547</v>
+        <v>-65.3654098510742</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>14.9795017242432</v>
+        <v>23.4146270751953</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>19.9517345428467</v>
+        <v>38.9244041442871</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>-42.3736966666667</v>
+        <v>-35.7145713333333</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>43.077089</v>
+        <v>50.0241206666667</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>41.117894</v>
+        <v>59.4675406666667</v>
       </c>
       <c r="K6" s="3" t="n">
-        <v>-74.798757</v>
+        <v>-70.1722513333333</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>21.2420266666667</v>
+        <v>30.01434</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>-24.5682513333333</v>
+        <v>-4.43896433333333</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>-73.868019</v>
+        <v>-69.41113</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>-25.7954406666667</v>
+        <v>-17.9574056666667</v>
       </c>
       <c r="P6" s="3" t="n">
-        <v>35.9847463333333</v>
+        <v>54.4434746666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -3932,48 +3819,48 @@
         <v>19</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>-61.4253807067871</v>
+        <v>-63.7072525024414</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>20.7091293334961</v>
+        <v>14.0771770477295</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>42.4309272766113</v>
+        <v>33.1073875427246</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>-32.585879</v>
+        <v>-32.1445706666667</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>49.068465</v>
+        <v>37.4124476666667</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>61.0641186666667</v>
+        <v>54.728223</v>
       </c>
       <c r="K7" s="3" t="n">
-        <v>-65.5715966666667</v>
+        <v>-68.6537246666667</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>22.9923056666667</v>
+        <v>23.0041276666667</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-1.836704</v>
+        <v>-10.271527</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>-66.4354146666667</v>
+        <v>-69.5690816666667</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>-19.165589</v>
+        <v>-28.7167246666667</v>
       </c>
       <c r="P7" s="3" t="n">
-        <v>62.7383573333333</v>
+        <v>46.3031286666667</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -3982,48 +3869,48 @@
         <v>19</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>-65.3654098510742</v>
+        <v>-56.8277702331543</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>23.4146270751953</v>
+        <v>11.4159250259399</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>38.9244041442871</v>
+        <v>22.7507953643799</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>-35.7145713333333</v>
+        <v>-27.9091866666667</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>50.0241206666667</v>
+        <v>34.0027683333333</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>59.4675406666667</v>
+        <v>47.055897</v>
       </c>
       <c r="K8" s="3" t="n">
-        <v>-70.1722513333333</v>
+        <v>-62.9898086666667</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>30.01434</v>
+        <v>23.837256</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-4.43896433333333</v>
+        <v>-19.5660033333333</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>-69.41113</v>
+        <v>-63.1814876666667</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>-17.9574056666667</v>
+        <v>-32.0671053333333</v>
       </c>
       <c r="P8" s="3" t="n">
-        <v>54.4434746666667</v>
+        <v>32.9617843333333</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -4032,48 +3919,48 @@
         <v>19</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>-63.7072525024414</v>
+        <v>-62.1107864379883</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>14.0771770477295</v>
+        <v>14.0916204452515</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>33.1073875427246</v>
+        <v>36.8934364318848</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>-32.1445706666667</v>
+        <v>-40.2660893333333</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>37.4124476666667</v>
+        <v>46.407753</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>54.728223</v>
+        <v>56.6769713333333</v>
       </c>
       <c r="K9" s="3" t="n">
-        <v>-68.6537246666667</v>
+        <v>-65.6575573333333</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>23.0041276666667</v>
+        <v>15.72225</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>-10.271527</v>
+        <v>-7.18922733333333</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>-69.5690816666667</v>
+        <v>-62.8103763333333</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>-28.7167246666667</v>
+        <v>-26.633248</v>
       </c>
       <c r="P9" s="3" t="n">
-        <v>46.3031286666667</v>
+        <v>57.3001136666667</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -4082,48 +3969,48 @@
         <v>19</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>-56.8277702331543</v>
+        <v>-57.5513343811035</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>11.4159250259399</v>
+        <v>23.1692638397217</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>22.7507953643799</v>
+        <v>33.9252395629883</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>-27.9091866666667</v>
+        <v>-28.8753873333333</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>34.0027683333333</v>
+        <v>50.878863</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>47.055897</v>
+        <v>51.6408703333333</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>-62.9898086666667</v>
+        <v>-63.177929</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>23.837256</v>
+        <v>25.101908</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>-19.5660033333333</v>
+        <v>-9.18487166666667</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>-63.1814876666667</v>
+        <v>-62.648065</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>-32.0671053333333</v>
+        <v>-16.8475013333333</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>32.9617843333333</v>
+        <v>53.5324466666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -4132,48 +4019,48 @@
         <v>19</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>-72.4324035644531</v>
+        <v>-60.0239524841309</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>6.49679851531982</v>
+        <v>28.7548732757568</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>37.5943336486816</v>
+        <v>32.4683952331543</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>-46.282459</v>
+        <v>-32.1615703333333</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>31.2655816666667</v>
+        <v>54.4072913333333</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>61.3364436666667</v>
+        <v>55.463692</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>-77.5973253333333</v>
+        <v>-67.0990166666667</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>19.4882936666667</v>
+        <v>36.7681146666667</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>-5.53635866666667</v>
+        <v>-10.8789023333333</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>-76.3772986666667</v>
+        <v>-64.60275</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>-37.0601473333333</v>
+        <v>-13.112664</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>45.8551206666667</v>
+        <v>47.0594036666667</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -4182,48 +4069,48 @@
         <v>19</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>-62.1107864379883</v>
+        <v>-55.0395584106445</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>14.0916204452515</v>
+        <v>11.3150968551636</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>36.8934364318848</v>
+        <v>17.1992607116699</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>-40.2660893333333</v>
+        <v>-24.3311956666667</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>46.407753</v>
+        <v>37.577732</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>56.6769713333333</v>
+        <v>35.978368</v>
       </c>
       <c r="K12" s="3" t="n">
-        <v>-65.6575573333333</v>
+        <v>-61.8314196666667</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>15.72225</v>
+        <v>16.323955</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>-7.18922733333333</v>
+        <v>-26.5761853333333</v>
       </c>
       <c r="N12" s="3" t="n">
-        <v>-62.8103763333333</v>
+        <v>-61.2159286666667</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>-26.633248</v>
+        <v>-29.2427296666667</v>
       </c>
       <c r="P12" s="3" t="n">
-        <v>57.3001136666667</v>
+        <v>35.6259803333333</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -4232,48 +4119,48 @@
         <v>19</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>-57.5513343811035</v>
+        <v>-58.8486709594727</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>23.1692638397217</v>
+        <v>25.2677211761475</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>33.9252395629883</v>
+        <v>37.8174438476562</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>-28.8753873333333</v>
+        <v>-26.9545286666667</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>50.878863</v>
+        <v>43.7856583333333</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>51.6408703333333</v>
+        <v>61.4822553333333</v>
       </c>
       <c r="K13" s="3" t="n">
-        <v>-63.177929</v>
+        <v>-60.4185703333333</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>25.101908</v>
+        <v>38.2083233333333</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>-9.18487166666667</v>
+        <v>-5.48574833333333</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>-62.648065</v>
+        <v>-67.3668163333333</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>-16.8475013333333</v>
+        <v>-18.171303</v>
       </c>
       <c r="P13" s="3" t="n">
-        <v>53.5324466666667</v>
+        <v>45.0869113333333</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -4282,48 +4169,48 @@
         <v>19</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>-60.0239524841309</v>
+        <v>-72.3264007568359</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>28.7548732757568</v>
+        <v>12.1921615600586</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>32.4683952331543</v>
+        <v>25.3697814941406</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>-32.1615703333333</v>
+        <v>-45.8428116666667</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>54.4072913333333</v>
+        <v>37.4797706666667</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>55.463692</v>
+        <v>48.9927256666667</v>
       </c>
       <c r="K14" s="3" t="n">
-        <v>-67.0990166666667</v>
+        <v>-76.2000023333333</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>36.7681146666667</v>
+        <v>21.1578793333333</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>-10.8789023333333</v>
+        <v>-18.4364833333333</v>
       </c>
       <c r="N14" s="3" t="n">
-        <v>-64.60275</v>
+        <v>-75.8643596666667</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>-13.112664</v>
+        <v>-30.750886</v>
       </c>
       <c r="P14" s="3" t="n">
-        <v>47.0594036666667</v>
+        <v>37.4305433333333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -4332,48 +4219,48 @@
         <v>19</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>-55.0395584106445</v>
+        <v>-69.0192031860352</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>11.3150968551636</v>
+        <v>17.4935970306396</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>17.1992607116699</v>
+        <v>21.5403327941894</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>-24.3311956666667</v>
+        <v>-43.550472</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>37.577732</v>
+        <v>46.6892763333333</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>35.978368</v>
+        <v>42.056534</v>
       </c>
       <c r="K15" s="3" t="n">
-        <v>-61.8314196666667</v>
+        <v>-67.0422206666667</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>16.323955</v>
+        <v>17.2829913333333</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>-26.5761853333333</v>
+        <v>-23.3219133333333</v>
       </c>
       <c r="N15" s="3" t="n">
-        <v>-61.2159286666667</v>
+        <v>-71.8377276666667</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>-29.2427296666667</v>
+        <v>-23.6765583333333</v>
       </c>
       <c r="P15" s="3" t="n">
-        <v>35.6259803333333</v>
+        <v>40.6410306666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -4382,48 +4269,48 @@
         <v>19</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>-58.8486709594727</v>
+        <v>-63.5525207519531</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>25.2677211761475</v>
+        <v>31.5417881011963</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>37.8174438476562</v>
+        <v>28.2179050445557</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>-26.9545286666667</v>
+        <v>-35.590374</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>43.7856583333333</v>
+        <v>57.768927</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>61.4822553333333</v>
+        <v>48.465215</v>
       </c>
       <c r="K16" s="3" t="n">
-        <v>-60.4185703333333</v>
+        <v>-68.705294</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>38.2083233333333</v>
+        <v>35.3483606666667</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>-5.48574833333333</v>
+        <v>-15.7550593333333</v>
       </c>
       <c r="N16" s="3" t="n">
-        <v>-67.3668163333333</v>
+        <v>-71.222796</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>-18.171303</v>
+        <v>-8.90007433333333</v>
       </c>
       <c r="P16" s="3" t="n">
-        <v>45.0869113333333</v>
+        <v>46.7582286666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -4432,48 +4319,48 @@
         <v>19</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>-56.7292633056641</v>
+        <v>-62.991081237793</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>33.7097473144531</v>
+        <v>27.8517932891846</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>43.0113410949707</v>
+        <v>39.2734565734863</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>-23.8788853333333</v>
+        <v>-33.5826173333333</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>56.9609066666667</v>
+        <v>51.4226046666667</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>60.901169</v>
+        <v>63.4904556666667</v>
       </c>
       <c r="K17" s="3" t="n">
-        <v>-60.5837653333333</v>
+        <v>-66.1437656666667</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>39.1147793333333</v>
+        <v>37.836006</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>1.505943</v>
+        <v>-4.246886</v>
       </c>
       <c r="N17" s="3" t="n">
-        <v>-65.6625976666667</v>
+        <v>-68.7360583333333</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>-6.154915</v>
+        <v>-14.703727</v>
       </c>
       <c r="P17" s="3" t="n">
-        <v>60.508793</v>
+        <v>50.2353986666667</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -4482,48 +4369,48 @@
         <v>19</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>-68.1168365478516</v>
+        <v>-66.6877593994141</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>17.2668972015381</v>
+        <v>23.9748649597168</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>18.7274799346924</v>
+        <v>50.4759521484375</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>-41.0288736666667</v>
+        <v>-40.698503</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>47.477118</v>
+        <v>53.72206</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>38.685754</v>
+        <v>71.457657</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>-71.5572076666667</v>
+        <v>-76.5025203333333</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>21.1796436666667</v>
+        <v>31.08332</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>-24.1842866666667</v>
+        <v>7.51556766666667</v>
       </c>
       <c r="N18" s="3" t="n">
-        <v>-67.9841333333333</v>
+        <v>-69.9529976666667</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>-23.594166</v>
+        <v>-17.2698673333333</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>35.985606</v>
+        <v>66.2572886666667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -4532,48 +4419,48 @@
         <v>19</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-72.3264007568359</v>
+        <v>-63.5146713256836</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>12.1921615600586</v>
+        <v>22.5405750274658</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>25.3697814941406</v>
+        <v>36.8600692749023</v>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-45.8428116666667</v>
+        <v>-34.5204086666667</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>37.4797706666667</v>
+        <v>51.3104896666667</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>48.9927256666667</v>
+        <v>53.992433</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>-76.2000023333333</v>
+        <v>-64.8680826666667</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>21.1578793333333</v>
+        <v>20.6559493333333</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>-18.4364833333333</v>
+        <v>-7.51663733333333</v>
       </c>
       <c r="N19" s="3" t="n">
-        <v>-75.8643596666667</v>
+        <v>-67.5080793333333</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>-30.750886</v>
+        <v>-17.0937873333333</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>37.4305433333333</v>
+        <v>58.6418483333333</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -4582,48 +4469,48 @@
         <v>19</v>
       </c>
       <c r="E20" s="3" t="n">
-        <v>-69.0192031860352</v>
+        <v>-68.4357681274414</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>17.4935970306396</v>
+        <v>15.1223821640015</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>21.5403327941894</v>
+        <v>30.5210037231445</v>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-43.550472</v>
+        <v>-41.3292873333333</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>46.6892763333333</v>
+        <v>38.2435976666667</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>42.056534</v>
+        <v>56.3281073333333</v>
       </c>
       <c r="K20" s="3" t="n">
-        <v>-67.0422206666667</v>
+        <v>-73.6915206666667</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>17.2829913333333</v>
+        <v>28.9473406666667</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>-23.3219133333333</v>
+        <v>-11.955412</v>
       </c>
       <c r="N20" s="3" t="n">
-        <v>-71.8377276666667</v>
+        <v>-75.294622</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>-23.6765583333333</v>
+        <v>-27.9915296666667</v>
       </c>
       <c r="P20" s="3" t="n">
-        <v>40.6410306666667</v>
+        <v>39.4312946666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -4632,48 +4519,48 @@
         <v>19</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>-67.6638946533203</v>
+        <v>-66.2454681396484</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>30.1800994873047</v>
+        <v>16.1368274688721</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>35.3904037475586</v>
+        <v>47.3391532897949</v>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-42.3886756666667</v>
+        <v>-38.53213</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>56.4444516666667</v>
+        <v>42.4547326666667</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>60.8103946666667</v>
+        <v>70.000539</v>
       </c>
       <c r="K21" s="3" t="n">
-        <v>-72.6806313333333</v>
+        <v>-73.162285</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>40.0146573333333</v>
+        <v>24.4815203333333</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-7.02523566666667</v>
+        <v>5.42837533333333</v>
       </c>
       <c r="N21" s="3" t="n">
-        <v>-74.063609</v>
+        <v>-68.3026913333333</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>-11.446328</v>
+        <v>-27.327891</v>
       </c>
       <c r="P21" s="3" t="n">
-        <v>48.7127203333333</v>
+        <v>60.7199033333333</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -4682,48 +4569,48 @@
         <v>19</v>
       </c>
       <c r="E22" s="3" t="n">
-        <v>-67.3744430541992</v>
+        <v>-57.5673561096191</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>20.8325119018555</v>
+        <v>16.717981338501</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>21.8082504272461</v>
+        <v>40.1598701477051</v>
       </c>
       <c r="H22" s="3" t="n">
-        <v>-41.3063073333333</v>
+        <v>-24.5651703333333</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>48.2014766666667</v>
+        <v>36.8011843333333</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>46.3310893333333</v>
+        <v>62.8284363333333</v>
       </c>
       <c r="K22" s="3" t="n">
-        <v>-69.110794</v>
+        <v>-63.8800086666667</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>29.0207593333333</v>
+        <v>29.3309146666667</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>-21.3873596666667</v>
+        <v>-2.246989</v>
       </c>
       <c r="N22" s="3" t="n">
-        <v>-73.1587373333333</v>
+        <v>-67.1287513333333</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>-21.2005246666667</v>
+        <v>-25.6620356666667</v>
       </c>
       <c r="P22" s="3" t="n">
-        <v>36.3394686666667</v>
+        <v>50.5805583333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -4732,48 +4619,48 @@
         <v>19</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>-63.5525207519531</v>
+        <v>-59.1887664794922</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>31.5417881011963</v>
+        <v>15.4625797271729</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>28.2179050445557</v>
+        <v>35.0851554870605</v>
       </c>
       <c r="H23" s="3" t="n">
-        <v>-35.590374</v>
+        <v>-30.638801</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>57.768927</v>
+        <v>43.1253586666667</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>48.465215</v>
+        <v>54.7605743333333</v>
       </c>
       <c r="K23" s="3" t="n">
-        <v>-68.705294</v>
+        <v>-62.438731</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>35.3483606666667</v>
+        <v>19.6760313333333</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>-15.7550593333333</v>
+        <v>-9.79563</v>
       </c>
       <c r="N23" s="3" t="n">
-        <v>-71.222796</v>
+        <v>-64.7277576666667</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>-8.90007433333333</v>
+        <v>-24.5425136666667</v>
       </c>
       <c r="P23" s="3" t="n">
-        <v>46.7582286666667</v>
+        <v>53.8222936666667</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -4782,48 +4669,48 @@
         <v>19</v>
       </c>
       <c r="E24" s="3" t="n">
-        <v>-57.0149116516113</v>
+        <v>-66.1318130493164</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>19.2024440765381</v>
+        <v>25.7947006225586</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>11.9874687194824</v>
+        <v>39.3486480712891</v>
       </c>
       <c r="H24" s="3" t="n">
-        <v>-26.264992</v>
+        <v>-38.5513023333333</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>46.686465</v>
+        <v>52.4634833333333</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>29.5142516666667</v>
+        <v>63.4242616666667</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>-59.1822633333333</v>
+        <v>-75.0588403333333</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>17.605044</v>
+        <v>35.9419696666667</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>-31.815699</v>
+        <v>-2.536196</v>
       </c>
       <c r="N24" s="3" t="n">
-        <v>-67.016734</v>
+        <v>-74.8595936666667</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>-17.8852736666667</v>
+        <v>-14.5599706666667</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>35.056965</v>
+        <v>54.937313</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -4832,48 +4719,48 @@
         <v>19</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>-62.991081237793</v>
+        <v>-62.3549423217773</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>27.8517932891846</v>
+        <v>27.296501159668</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>39.2734565734863</v>
+        <v>45.6689224243164</v>
       </c>
       <c r="H25" s="3" t="n">
-        <v>-33.5826173333333</v>
+        <v>-35.5678396666667</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>51.4226046666667</v>
+        <v>57.137848</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>63.4904556666667</v>
+        <v>66.2029013333333</v>
       </c>
       <c r="K25" s="3" t="n">
-        <v>-66.1437656666667</v>
+        <v>-69.0923766666667</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>37.836006</v>
+        <v>32.7584876666667</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>-4.246886</v>
+        <v>2.22106233333333</v>
       </c>
       <c r="N25" s="3" t="n">
-        <v>-68.7360583333333</v>
+        <v>-66.3017856666667</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>-14.703727</v>
+        <v>-13.205959</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>50.2353986666667</v>
+        <v>63.739066</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -4882,48 +4769,48 @@
         <v>19</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>-66.6877593994141</v>
+        <v>-59.4019317626953</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>23.9748649597168</v>
+        <v>20.3367881774902</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>50.4759521484375</v>
+        <v>43.1617622375488</v>
       </c>
       <c r="H26" s="3" t="n">
-        <v>-40.698503</v>
+        <v>-31.664346</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>53.72206</v>
+        <v>45.6708756666667</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>71.457657</v>
+        <v>65.749204</v>
       </c>
       <c r="K26" s="3" t="n">
-        <v>-76.5025203333333</v>
+        <v>-59.8033843333333</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>31.08332</v>
+        <v>26.595726</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>7.51556766666667</v>
+        <v>-1.17729233333333</v>
       </c>
       <c r="N26" s="3" t="n">
-        <v>-69.9529976666667</v>
+        <v>-68.2475306666667</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>-17.2698673333333</v>
+        <v>-19.9976533333333</v>
       </c>
       <c r="P26" s="3" t="n">
-        <v>66.2572886666667</v>
+        <v>57.875535</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -4932,48 +4819,48 @@
         <v>19</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>-63.5146713256836</v>
+        <v>-60.4589920043945</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>22.5405750274658</v>
+        <v>22.0059700012207</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>36.8600692749023</v>
+        <v>41.6677322387695</v>
       </c>
       <c r="H27" s="3" t="n">
-        <v>-34.5204086666667</v>
+        <v>-31.6189263333333</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>51.3104896666667</v>
+        <v>47.614161</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>53.992433</v>
+        <v>63.3042016666667</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>-64.8680826666667</v>
+        <v>-64.467949</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>20.6559493333333</v>
+        <v>28.4136003333333</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-7.51663733333333</v>
+        <v>-2.79783033333333</v>
       </c>
       <c r="N27" s="3" t="n">
-        <v>-67.5080793333333</v>
+        <v>-66.7650223333333</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>-17.0937873333333</v>
+        <v>-18.9818046666667</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>58.6418483333333</v>
+        <v>56.3440476666667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -4982,48 +4869,48 @@
         <v>19</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>-68.4357681274414</v>
+        <v>-62.6404037475586</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>15.1223821640015</v>
+        <v>20.8722476959228</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>30.5210037231445</v>
+        <v>47.6940841674805</v>
       </c>
       <c r="H28" s="3" t="n">
-        <v>-41.3292873333333</v>
+        <v>-32.8233693333333</v>
       </c>
       <c r="I28" s="3" t="n">
-        <v>38.2435976666667</v>
+        <v>48.6285043333333</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>56.3281073333333</v>
+        <v>66.682658</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>-73.6915206666667</v>
+        <v>-68.2814203333333</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>28.9473406666667</v>
+        <v>24.7172786666667</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>-11.955412</v>
+        <v>3.86421066666667</v>
       </c>
       <c r="N28" s="3" t="n">
-        <v>-75.294622</v>
+        <v>-67.576963</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>-27.9915296666667</v>
+        <v>-19.838774</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>39.4312946666667</v>
+        <v>66.179975</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -5032,48 +4919,48 @@
         <v>19</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>-64.140625</v>
+        <v>-68.8141937255859</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>25.0547218322754</v>
+        <v>17.6423091888428</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>20.583517074585</v>
+        <v>37.7489280700684</v>
       </c>
       <c r="H29" s="3" t="n">
-        <v>-36.4369646666667</v>
+        <v>-42.002782</v>
       </c>
       <c r="I29" s="3" t="n">
-        <v>50.5846913333333</v>
+        <v>46.6136106666667</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>45.1044656666667</v>
+        <v>59.2893116666667</v>
       </c>
       <c r="K29" s="3" t="n">
-        <v>-70.1563033333333</v>
+        <v>-72.4701053333333</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>37.164571</v>
+        <v>22.92649</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>-22.0538786666667</v>
+        <v>-6.759531</v>
       </c>
       <c r="N29" s="3" t="n">
-        <v>-71.010859</v>
+        <v>-74.6651333333333</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>-17.1010786666667</v>
+        <v>-22.942204</v>
       </c>
       <c r="P29" s="3" t="n">
-        <v>31.9187436666667</v>
+        <v>55.6755383333333</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -5082,48 +4969,48 @@
         <v>19</v>
       </c>
       <c r="E30" s="3" t="n">
-        <v>-62.1691818237305</v>
+        <v>-55.8366928100586</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>11.2102060317993</v>
+        <v>30.8550243377686</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>42.5237846374512</v>
+        <v>34.3521499633789</v>
       </c>
       <c r="H30" s="3" t="n">
-        <v>-32.064078</v>
+        <v>-26.150157</v>
       </c>
       <c r="I30" s="3" t="n">
-        <v>34.9808196666667</v>
+        <v>55.440161</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>65.61839</v>
+        <v>55.2493616666667</v>
       </c>
       <c r="K30" s="3" t="n">
-        <v>-70.1547116666667</v>
+        <v>-60.772995</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>22.3585226666667</v>
+        <v>35.785661</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>-0.358637</v>
+        <v>-9.58723933333334</v>
       </c>
       <c r="N30" s="3" t="n">
-        <v>-68.9395266666667</v>
+        <v>-66.221756</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>-32.0935603333333</v>
+        <v>-9.132144</v>
       </c>
       <c r="P30" s="3" t="n">
-        <v>54.540583</v>
+        <v>51.983447</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -5132,639 +5019,39 @@
         <v>19</v>
       </c>
       <c r="E31" s="3" t="n">
-        <v>-66.2454681396484</v>
+        <v>-59.0983963012695</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>16.1368274688721</v>
+        <v>12.388879776001</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>47.3391532897949</v>
+        <v>54.9930419921875</v>
       </c>
       <c r="H31" s="3" t="n">
-        <v>-38.53213</v>
+        <v>-31.9807323333333</v>
       </c>
       <c r="I31" s="3" t="n">
-        <v>42.4547326666667</v>
+        <v>40.984703</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>70.000539</v>
+        <v>76.7892736666667</v>
       </c>
       <c r="K31" s="3" t="n">
-        <v>-73.162285</v>
+        <v>-65.5974603333333</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>24.4815203333333</v>
+        <v>18.546036</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>5.42837533333333</v>
+        <v>11.8771073333333</v>
       </c>
       <c r="N31" s="3" t="n">
-        <v>-68.3026913333333</v>
+        <v>-64.4408926666667</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>-27.327891</v>
+        <v>-28.7256386666667</v>
       </c>
       <c r="P31" s="3" t="n">
-        <v>60.7199033333333</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="3" t="n">
-        <v>-59.2145652770996</v>
-      </c>
-      <c r="F32" s="3" t="n">
-        <v>34.4951210021973</v>
-      </c>
-      <c r="G32" s="3" t="n">
-        <v>21.4401798248291</v>
-      </c>
-      <c r="H32" s="3" t="n">
-        <v>-29.635508</v>
-      </c>
-      <c r="I32" s="3" t="n">
-        <v>61.8398666666667</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>38.9172363333333</v>
-      </c>
-      <c r="K32" s="3" t="n">
-        <v>-66.9859263333333</v>
-      </c>
-      <c r="L32" s="3" t="n">
-        <v>37.129351</v>
-      </c>
-      <c r="M32" s="3" t="n">
-        <v>-21.8426546666667</v>
-      </c>
-      <c r="N32" s="3" t="n">
-        <v>-63.03649</v>
-      </c>
-      <c r="O32" s="3" t="n">
-        <v>-6.024193</v>
-      </c>
-      <c r="P32" s="3" t="n">
-        <v>40.4620006666667</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="3" t="n">
-        <v>-57.5673561096191</v>
-      </c>
-      <c r="F33" s="3" t="n">
-        <v>16.717981338501</v>
-      </c>
-      <c r="G33" s="3" t="n">
-        <v>40.1598701477051</v>
-      </c>
-      <c r="H33" s="3" t="n">
-        <v>-24.5651703333333</v>
-      </c>
-      <c r="I33" s="3" t="n">
-        <v>36.8011843333333</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>62.8284363333333</v>
-      </c>
-      <c r="K33" s="3" t="n">
-        <v>-63.8800086666667</v>
-      </c>
-      <c r="L33" s="3" t="n">
-        <v>29.3309146666667</v>
-      </c>
-      <c r="M33" s="3" t="n">
-        <v>-2.246989</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>-67.1287513333333</v>
-      </c>
-      <c r="O33" s="3" t="n">
-        <v>-25.6620356666667</v>
-      </c>
-      <c r="P33" s="3" t="n">
-        <v>50.5805583333333</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="3" t="n">
-        <v>-59.1887664794922</v>
-      </c>
-      <c r="F34" s="3" t="n">
-        <v>15.4625797271729</v>
-      </c>
-      <c r="G34" s="3" t="n">
-        <v>35.0851554870605</v>
-      </c>
-      <c r="H34" s="3" t="n">
-        <v>-30.638801</v>
-      </c>
-      <c r="I34" s="3" t="n">
-        <v>43.1253586666667</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>54.7605743333333</v>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>-62.438731</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>19.6760313333333</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>-9.79563</v>
-      </c>
-      <c r="N34" s="3" t="n">
-        <v>-64.7277576666667</v>
-      </c>
-      <c r="O34" s="3" t="n">
-        <v>-24.5425136666667</v>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>53.8222936666667</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="3" t="n">
-        <v>-66.1318130493164</v>
-      </c>
-      <c r="F35" s="3" t="n">
-        <v>25.7947006225586</v>
-      </c>
-      <c r="G35" s="3" t="n">
-        <v>39.3486480712891</v>
-      </c>
-      <c r="H35" s="3" t="n">
-        <v>-38.5513023333333</v>
-      </c>
-      <c r="I35" s="3" t="n">
-        <v>52.4634833333333</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>63.4242616666667</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <v>-75.0588403333333</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>35.9419696666667</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>-2.536196</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>-74.8595936666667</v>
-      </c>
-      <c r="O35" s="3" t="n">
-        <v>-14.5599706666667</v>
-      </c>
-      <c r="P35" s="3" t="n">
-        <v>54.937313</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>-62.3549423217773</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>27.296501159668</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>45.6689224243164</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>-35.5678396666667</v>
-      </c>
-      <c r="I36" s="3" t="n">
-        <v>57.137848</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>66.2029013333333</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <v>-69.0923766666667</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>32.7584876666667</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>2.22106233333333</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>-66.3017856666667</v>
-      </c>
-      <c r="O36" s="3" t="n">
-        <v>-13.205959</v>
-      </c>
-      <c r="P36" s="3" t="n">
-        <v>63.739066</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="3" t="n">
-        <v>-59.175895690918</v>
-      </c>
-      <c r="F37" s="3" t="n">
-        <v>26.1389999389648</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>31.0039081573486</v>
-      </c>
-      <c r="H37" s="3" t="n">
-        <v>-32.4386833333333</v>
-      </c>
-      <c r="I37" s="3" t="n">
-        <v>54.056585</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>52.787374</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <v>-66.0668333333333</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>33.0441076666667</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>-11.865007</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>-65.031148</v>
-      </c>
-      <c r="O37" s="3" t="n">
-        <v>-14.9136663333333</v>
-      </c>
-      <c r="P37" s="3" t="n">
-        <v>48.199534</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="3" t="n">
-        <v>-59.4019317626953</v>
-      </c>
-      <c r="F38" s="3" t="n">
-        <v>20.3367881774902</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>43.1617622375488</v>
-      </c>
-      <c r="H38" s="3" t="n">
-        <v>-31.664346</v>
-      </c>
-      <c r="I38" s="3" t="n">
-        <v>45.6708756666667</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>65.749204</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <v>-59.8033843333333</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>26.595726</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>-1.17729233333333</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>-68.2475306666667</v>
-      </c>
-      <c r="O38" s="3" t="n">
-        <v>-19.9976533333333</v>
-      </c>
-      <c r="P38" s="3" t="n">
-        <v>57.875535</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="3" t="n">
-        <v>-60.4589920043945</v>
-      </c>
-      <c r="F39" s="3" t="n">
-        <v>22.0059700012207</v>
-      </c>
-      <c r="G39" s="3" t="n">
-        <v>41.6677322387695</v>
-      </c>
-      <c r="H39" s="3" t="n">
-        <v>-31.6189263333333</v>
-      </c>
-      <c r="I39" s="3" t="n">
-        <v>47.614161</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>63.3042016666667</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <v>-64.467949</v>
-      </c>
-      <c r="L39" s="3" t="n">
-        <v>28.4136003333333</v>
-      </c>
-      <c r="M39" s="3" t="n">
-        <v>-2.79783033333333</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>-66.7650223333333</v>
-      </c>
-      <c r="O39" s="3" t="n">
-        <v>-18.9818046666667</v>
-      </c>
-      <c r="P39" s="3" t="n">
-        <v>56.3440476666667</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="3" t="n">
-        <v>-62.6404037475586</v>
-      </c>
-      <c r="F40" s="3" t="n">
-        <v>20.8722476959228</v>
-      </c>
-      <c r="G40" s="3" t="n">
-        <v>47.6940841674805</v>
-      </c>
-      <c r="H40" s="3" t="n">
-        <v>-32.8233693333333</v>
-      </c>
-      <c r="I40" s="3" t="n">
-        <v>48.6285043333333</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>66.682658</v>
-      </c>
-      <c r="K40" s="3" t="n">
-        <v>-68.2814203333333</v>
-      </c>
-      <c r="L40" s="3" t="n">
-        <v>24.7172786666667</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>3.86421066666667</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>-67.576963</v>
-      </c>
-      <c r="O40" s="3" t="n">
-        <v>-19.838774</v>
-      </c>
-      <c r="P40" s="3" t="n">
-        <v>66.179975</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="3" t="n">
-        <v>-68.8141937255859</v>
-      </c>
-      <c r="F41" s="3" t="n">
-        <v>17.6423091888428</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>37.7489280700684</v>
-      </c>
-      <c r="H41" s="3" t="n">
-        <v>-42.002782</v>
-      </c>
-      <c r="I41" s="3" t="n">
-        <v>46.6136106666667</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>59.2893116666667</v>
-      </c>
-      <c r="K41" s="3" t="n">
-        <v>-72.4701053333333</v>
-      </c>
-      <c r="L41" s="3" t="n">
-        <v>22.92649</v>
-      </c>
-      <c r="M41" s="3" t="n">
-        <v>-6.759531</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>-74.6651333333333</v>
-      </c>
-      <c r="O41" s="3" t="n">
-        <v>-22.942204</v>
-      </c>
-      <c r="P41" s="3" t="n">
-        <v>55.6755383333333</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="3" t="n">
-        <v>-55.8366928100586</v>
-      </c>
-      <c r="F42" s="3" t="n">
-        <v>30.8550243377686</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>34.3521499633789</v>
-      </c>
-      <c r="H42" s="3" t="n">
-        <v>-26.150157</v>
-      </c>
-      <c r="I42" s="3" t="n">
-        <v>55.440161</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>55.2493616666667</v>
-      </c>
-      <c r="K42" s="3" t="n">
-        <v>-60.772995</v>
-      </c>
-      <c r="L42" s="3" t="n">
-        <v>35.785661</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>-9.58723933333334</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>-66.221756</v>
-      </c>
-      <c r="O42" s="3" t="n">
-        <v>-9.132144</v>
-      </c>
-      <c r="P42" s="3" t="n">
-        <v>51.983447</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E43" s="3" t="n">
-        <v>-59.0983963012695</v>
-      </c>
-      <c r="F43" s="3" t="n">
-        <v>12.388879776001</v>
-      </c>
-      <c r="G43" s="3" t="n">
-        <v>54.9930419921875</v>
-      </c>
-      <c r="H43" s="3" t="n">
-        <v>-31.9807323333333</v>
-      </c>
-      <c r="I43" s="3" t="n">
-        <v>40.984703</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>76.7892736666667</v>
-      </c>
-      <c r="K43" s="3" t="n">
-        <v>-65.5974603333333</v>
-      </c>
-      <c r="L43" s="3" t="n">
-        <v>18.546036</v>
-      </c>
-      <c r="M43" s="3" t="n">
-        <v>11.8771073333333</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>-64.4408926666667</v>
-      </c>
-      <c r="O43" s="3" t="n">
-        <v>-28.7256386666667</v>
-      </c>
-      <c r="P43" s="3" t="n">
         <v>72.6373573333333</v>
       </c>
     </row>
@@ -5784,10 +5071,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P44"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5850,13 +5137,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>-60.1401329040527</v>
@@ -5897,2101 +5184,1451 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>-62.8708648681641</v>
+        <v>-56.9904594421387</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>21.602481842041</v>
+        <v>27.4212837219238</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>38.7102470397949</v>
+        <v>24.6194763183594</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>-38.9468103333333</v>
+        <v>-27.846113</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>52.0210953333333</v>
+        <v>52.103818</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>60.0414773333333</v>
+        <v>46.247387</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>-70.092532</v>
+        <v>-59.087823</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>27.4613163333333</v>
+        <v>32.768706</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>-5.34202266666667</v>
+        <v>-20.5957283333333</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>-66.0300983333333</v>
+        <v>-69.3795853333333</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>-19.4764546666667</v>
+        <v>-10.9472373333333</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>56.6038776666667</v>
+        <v>42.277973</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-67.0975036621094</v>
+        <v>-61.7672233581543</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>24.8048248291016</v>
+        <v>26.4580974578857</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>45.2380256652832</v>
+        <v>33.658332824707</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>-38.2398973333333</v>
+        <v>-29.8295306666667</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>51.60369</v>
+        <v>48.9470886666667</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>65.7585726666667</v>
+        <v>54.415348</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>-72.280637</v>
+        <v>-67.5951336666667</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>32.5271663333333</v>
+        <v>34.3312263333333</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>1.68330333333333</v>
+        <v>-9.53928266666667</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>-72.0229163333333</v>
+        <v>-69.8983613333333</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>-16.579668</v>
+        <v>-14.52882</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>60.554544</v>
+        <v>49.010545</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>-56.9904594421387</v>
+        <v>-59.541316986084</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>27.4212837219238</v>
+        <v>19.8516349792481</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>24.6194763183594</v>
+        <v>21.8163032531738</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>-27.846113</v>
+        <v>-30.6781306666667</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>52.103818</v>
+        <v>48.922011</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>46.247387</v>
+        <v>38.900696</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>-59.087823</v>
+        <v>-61.4837326666667</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>32.768706</v>
+        <v>18.445296</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>-20.5957283333333</v>
+        <v>-23.5251673333333</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>-69.3795853333333</v>
+        <v>-66.143064</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>-10.9472373333333</v>
+        <v>-18.1022926666667</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>42.277973</v>
+        <v>44.002683</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>-60.5461654663086</v>
+        <v>-63.6952972412109</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>29.3200454711914</v>
+        <v>21.794225692749</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>25.1103801727295</v>
+        <v>7.48747253417969</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>-30.6738843333333</v>
+        <v>-32.881761</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>56.1733156666667</v>
+        <v>46.385278</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>43.4982883333333</v>
+        <v>29.292545</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>-63.5618336666667</v>
+        <v>-68.4063696666667</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>30.8011486666667</v>
+        <v>30.8434373333333</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>-19.5614383333333</v>
+        <v>-35.3733113333333</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>-64.4739276666667</v>
+        <v>-68.520238</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>-10.9982526666667</v>
+        <v>-20.2299673333333</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>44.3910066666667</v>
+        <v>20.2296873333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>-61.7672233581543</v>
+        <v>-60.6203460693359</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>26.4580974578857</v>
+        <v>21.2394409179687</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>33.658332824707</v>
+        <v>41.4097747802734</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>-29.8295306666667</v>
+        <v>-29.2310936666667</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>48.9470886666667</v>
+        <v>43.803729</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>54.415348</v>
+        <v>60.755479</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>-67.5951336666667</v>
+        <v>-65.9887643333333</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>34.3312263333333</v>
+        <v>29.1556023333333</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>-9.53928266666667</v>
+        <v>-1.901456</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>-69.8983613333333</v>
+        <v>-65.671791</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>-14.52882</v>
+        <v>-21.0733526666667</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>49.010545</v>
+        <v>55.2784993333333</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>-59.541316986084</v>
+        <v>-62.2721710205078</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>19.8516349792481</v>
+        <v>11.6405982971191</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>21.8163032531738</v>
+        <v>19.2377643585205</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>-30.6781306666667</v>
+        <v>-36.211413</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>48.922011</v>
+        <v>37.6047223333333</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>38.900696</v>
+        <v>43.3370386666667</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>-61.4837326666667</v>
+        <v>-65.0324936666667</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>18.445296</v>
+        <v>20.2933013333333</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>-23.5251673333333</v>
+        <v>-24.718508</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>-66.143064</v>
+        <v>-66.1460036666667</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>-18.1022926666667</v>
+        <v>-30.848894</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>44.002683</v>
+        <v>32.668741</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-63.6952972412109</v>
+        <v>-61.1309242248535</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>21.794225692749</v>
+        <v>14.7136726379395</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>7.48747253417969</v>
+        <v>31.1595344543457</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>-32.881761</v>
+        <v>-37.083354</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>46.385278</v>
+        <v>46.5818303333333</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>29.292545</v>
+        <v>51.670766</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>-68.4063696666667</v>
+        <v>-64.8743896666667</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>30.8434373333333</v>
+        <v>17.3151903333333</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>-35.3733113333333</v>
+        <v>-9.144547</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>-68.520238</v>
+        <v>-62.7891196666667</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>-20.2299673333333</v>
+        <v>-25.4122213333333</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>20.2296873333333</v>
+        <v>50.3850023333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>-60.6203460693359</v>
+        <v>-59.8235015869141</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>21.2394409179687</v>
+        <v>23.6721000671387</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>41.4097747802734</v>
+        <v>26.0064010620117</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>-29.2310936666667</v>
+        <v>-31.6353633333333</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>43.803729</v>
+        <v>53.5693233333333</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>60.755479</v>
+        <v>42.0380986666667</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>-65.9887643333333</v>
+        <v>-62.6590906666667</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>29.1556023333333</v>
+        <v>21.52722</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>-1.901456</v>
+        <v>-18.7530706666667</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>-65.671791</v>
+        <v>-64.4240926666667</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>-21.0733526666667</v>
+        <v>-14.3412766666667</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>55.2784993333333</v>
+        <v>49.7265256666667</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>-62.2721710205078</v>
+        <v>-56.4713668823242</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>11.6405982971191</v>
+        <v>26.7748413085937</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>19.2377643585205</v>
+        <v>43.9045066833496</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>-36.211413</v>
+        <v>-25.7161223333333</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>37.6047223333333</v>
+        <v>51.6511686666667</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>43.3370386666667</v>
+        <v>65.182167</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>-65.0324936666667</v>
+        <v>-61.3858183333333</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>20.2933013333333</v>
+        <v>33.9043806666667</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>-24.718508</v>
+        <v>0.732335333333333</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>-66.1460036666667</v>
+        <v>-64.148599</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>-30.848894</v>
+        <v>-14.7345316666667</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>32.668741</v>
+        <v>59.516722</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-67.0573501586914</v>
+        <v>-51.7645072937012</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>12.9892024993897</v>
+        <v>14.9031620025635</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>18.0187015533447</v>
+        <v>11.7211236953735</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>-37.9312033333333</v>
+        <v>-19.7078553333333</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>35.60016</v>
+        <v>40.9832216666667</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>40.4067866666667</v>
+        <v>28.2602133333333</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>-72.3615086666667</v>
+        <v>-60.4018313333333</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>26.033566</v>
+        <v>18.1906743333333</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>-24.5162306666667</v>
+        <v>-31.6239433333333</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>-72.688731</v>
+        <v>-57.7681263333333</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>-30.0614553333333</v>
+        <v>-25.154887</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>27.903074</v>
+        <v>31.120224</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-61.1309242248535</v>
+        <v>-57.6955451965332</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>14.7136726379395</v>
+        <v>19.0062198638916</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>31.1595344543457</v>
+        <v>42.5719299316406</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>-37.083354</v>
+        <v>-26.162765</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>46.5818303333333</v>
+        <v>38.1024423333333</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>51.670766</v>
+        <v>66.581235</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>-64.8743896666667</v>
+        <v>-60.0650063333333</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>17.3151903333333</v>
+        <v>33.1904386666667</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>-9.144547</v>
+        <v>1.054449</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>-62.7891196666667</v>
+        <v>-64.5275066666667</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>-25.4122213333333</v>
+        <v>-24.8450816666667</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>50.3850023333333</v>
+        <v>50.0376446666667</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-59.8235015869141</v>
+        <v>-70.6557693481445</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>23.6721000671387</v>
+        <v>13.1015357971191</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>26.0064010620117</v>
+        <v>19.4383106231689</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>-31.6353633333333</v>
+        <v>-42.1329906666667</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>53.5693233333333</v>
+        <v>40.8747993333333</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>42.0380986666667</v>
+        <v>39.0715256666667</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>-62.6590906666667</v>
+        <v>-77.035642</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>21.52722</v>
+        <v>19.766402</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-18.7530706666667</v>
+        <v>-23.9106366666667</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>-64.4240926666667</v>
+        <v>-71.9821143333333</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>-14.3412766666667</v>
+        <v>-27.5909176666667</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>49.7265256666667</v>
+        <v>34.2062673333333</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-56.4713668823242</v>
+        <v>-67.6954116821289</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>26.7748413085937</v>
+        <v>21.5147552490234</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>43.9045066833496</v>
+        <v>20.0983638763428</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>-25.7161223333333</v>
+        <v>-40.177283</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>51.6511686666667</v>
+        <v>51.64409</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>65.182167</v>
+        <v>36.4149693333333</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>-61.3858183333333</v>
+        <v>-70.8480606666667</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>33.9043806666667</v>
+        <v>18.6914223333333</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.732335333333333</v>
+        <v>-23.2842466666667</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>-64.148599</v>
+        <v>-71.333481</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>-14.7345316666667</v>
+        <v>-16.6414843333333</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>59.516722</v>
+        <v>42.2092426666667</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>-51.7645072937012</v>
+        <v>-63.3063468933105</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>14.9031620025635</v>
+        <v>28.9232559204102</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>11.7211236953735</v>
+        <v>25.9169788360596</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>-19.7078553333333</v>
+        <v>-35.1573306666667</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>40.9832216666667</v>
+        <v>54.1744156666667</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>28.2602133333333</v>
+        <v>48.232942</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>-60.4018313333333</v>
+        <v>-67.7729186666667</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>18.1906743333333</v>
+        <v>35.5525283333333</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>-31.6239433333333</v>
+        <v>-18.0390166666667</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>-57.7681263333333</v>
+        <v>-71.7119573333333</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>-25.154887</v>
+        <v>-12.244281</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>31.120224</v>
+        <v>42.5995166666667</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>-57.6955451965332</v>
+        <v>-63.6138153076172</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>19.0062198638916</v>
+        <v>26.443489074707</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>42.5719299316406</v>
+        <v>25.8081130981445</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>-26.162765</v>
+        <v>-34.3973233333333</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>38.1024423333333</v>
+        <v>49.197066</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>66.581235</v>
+        <v>50.2605373333333</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>-60.0650063333333</v>
+        <v>-66.585884</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>33.1904386666667</v>
+        <v>36.935126</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1.054449</v>
+        <v>-17.1226563333333</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>-64.5275066666667</v>
+        <v>-70.370252</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>-24.8450816666667</v>
+        <v>-15.869842</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>50.0376446666667</v>
+        <v>36.972998</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-59.9766426086426</v>
+        <v>-61.3444747924805</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>26.9018650054932</v>
+        <v>22.071418762207</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>43.526050567627</v>
+        <v>51.9823913574219</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>-28.892586</v>
+        <v>-33.15059</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>52.7167053333333</v>
+        <v>48.314288</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>61.1167873333333</v>
+        <v>75.0426763333334</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>-65.4753393333333</v>
+        <v>-73.1505966666667</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>28.8413526666667</v>
+        <v>35.3038753333333</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0.259134333333333</v>
+        <v>11.1131803333333</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>-67.62751</v>
+        <v>-67.2442983333333</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>-13.1451036666667</v>
+        <v>-19.8970496666667</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>63.2557793333333</v>
+        <v>65.3064676666667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-65.5131454467773</v>
+        <v>-59.5540275573731</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>24.8838176727295</v>
+        <v>27.724573135376</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>26.391658782959</v>
+        <v>27.7347545623779</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>-37.490943</v>
+        <v>-28.0857116666667</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>51.6098073333333</v>
+        <v>53.462442</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>48.0193036666667</v>
+        <v>45.9351413333333</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>-68.8688353333333</v>
+        <v>-60.9009296666667</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>30.132946</v>
+        <v>26.7075563333333</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>-17.0764243333333</v>
+        <v>-17.212478</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>-72.69546</v>
+        <v>-67.87603</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>-15.799529</v>
+        <v>-11.1472776666667</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>42.993474</v>
+        <v>48.4235596666667</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>-70.6557693481445</v>
+        <v>-66.53466796875</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>13.1015357971191</v>
+        <v>21.0168743133545</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>19.4383106231689</v>
+        <v>22.0727005004883</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>-42.1329906666667</v>
+        <v>-37.3523263333333</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>40.8747993333333</v>
+        <v>40.8475063333333</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>39.0715256666667</v>
+        <v>49.4348653333333</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>-77.035642</v>
+        <v>-69.05793</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>19.766402</v>
+        <v>36.714619</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>-23.9106366666667</v>
+        <v>-18.940145</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>-71.9821143333333</v>
+        <v>-77.0438306666667</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>-27.5909176666667</v>
+        <v>-21.2989476666667</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>34.2062673333333</v>
+        <v>30.0233706666667</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-67.6954116821289</v>
+        <v>-64.2963790893555</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>21.5147552490234</v>
+        <v>19.0664005279541</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>20.0983638763428</v>
+        <v>49.4851837158203</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>-40.177283</v>
+        <v>-36.3722903333333</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>51.64409</v>
+        <v>45.4532113333333</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>36.4149693333333</v>
+        <v>71.3084463333333</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>-70.8480606666667</v>
+        <v>-71.647588</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>18.6914223333333</v>
+        <v>26.1821116666667</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>-23.2842466666667</v>
+        <v>5.687536</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>-71.333481</v>
+        <v>-69.2515306666667</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>-16.6414843333333</v>
+        <v>-23.55357</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>42.2092426666667</v>
+        <v>64.3571713333333</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>-66.7590866088867</v>
+        <v>-52.4320945739746</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>23.7938899993896</v>
+        <v>15.8418779373169</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>31.6462574005127</v>
+        <v>41.6021194458008</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>-41.1893526666667</v>
+        <v>-19.094091</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>51.0260096666667</v>
+        <v>35.1557413333333</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>55.889758</v>
+        <v>64.4278003333333</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>-73.961932</v>
+        <v>-56.7924413333333</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>34.4092903333333</v>
+        <v>29.2108453333333</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>-11.2539033333333</v>
+        <v>-1.39152633333333</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>-71.0652566666667</v>
+        <v>-63.7339833333333</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>-18.000186</v>
+        <v>-25.4114563333333</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>44.1498236666667</v>
+        <v>52.4123726666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-67.5609283447266</v>
+        <v>-57.502140045166</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>23.5011940002441</v>
+        <v>26.1570491790771</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>30.4818954467773</v>
+        <v>45.4410781860352</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>-40.7969436666667</v>
+        <v>-27.582859</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>49.171617</v>
+        <v>51.8710736666667</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>56.744503</v>
+        <v>65.009656</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>-68.069496</v>
+        <v>-60.534953</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>32.9109853333333</v>
+        <v>29.21682</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>-12.6249156666667</v>
+        <v>1.22312833333333</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>-73.3236823333333</v>
+        <v>-65.8451286666667</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>-19.5237833333333</v>
+        <v>-14.4716383333333</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>42.8841666666667</v>
+        <v>64.561104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>-63.3063468933105</v>
+        <v>-65.9189834594727</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>28.9232559204102</v>
+        <v>29.9067535400391</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>25.9169788360596</v>
+        <v>30.4844284057617</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>-35.1573306666667</v>
+        <v>-38.830494</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>54.1744156666667</v>
+        <v>56.6935553333333</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>48.232942</v>
+        <v>53.5648066666667</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>-67.7729186666667</v>
+        <v>-73.3199716666667</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>35.5525283333333</v>
+        <v>38.2906773333333</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>-18.0390166666667</v>
+        <v>-12.3884306666667</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>-71.7119573333333</v>
+        <v>-75.8865076666667</v>
       </c>
       <c r="O24" s="0" t="n">
-        <v>-12.244281</v>
+        <v>-9.61225266666667</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>42.5995166666667</v>
+        <v>47.531841</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-57.9081726074219</v>
+        <v>-61.7227592468262</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>23.7718086242676</v>
+        <v>24.8426818847656</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>26.551628112793</v>
+        <v>24.3632659912109</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>-28.9537456666667</v>
+        <v>-34.1968383333333</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>50.1374956666667</v>
+        <v>52.5846213333333</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>46.3611856666667</v>
+        <v>45.3694906666667</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>-59.180686</v>
+        <v>-68.7655666666667</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>24.319089</v>
+        <v>32.0550326666667</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>-18.6160113333333</v>
+        <v>-18.3960276666667</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>-68.519539</v>
+        <v>-66.0670673333333</v>
       </c>
       <c r="O25" s="0" t="n">
-        <v>-14.9947603333333</v>
+        <v>-17.5643023333333</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>47.2961946666667</v>
+        <v>39.6031363333333</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-63.6138153076172</v>
+        <v>-58.7384910583496</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>26.443489074707</v>
+        <v>23.7910842895508</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>25.8081130981445</v>
+        <v>51.4027366638184</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>-34.3973233333333</v>
+        <v>-30.9485626666667</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>49.197066</v>
+        <v>50.2609406666667</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>50.2605373333333</v>
+        <v>74.085912</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>-66.585884</v>
+        <v>-59.3368696666667</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>36.935126</v>
+        <v>30.5022633333333</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>-17.1226563333333</v>
+        <v>7.573549</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>-70.370252</v>
+        <v>-66.7401373333333</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>-15.869842</v>
+        <v>-16.60074</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>36.972998</v>
+        <v>66.5927963333333</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-61.3444747924805</v>
+        <v>-64.5199584960938</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>22.071418762207</v>
+        <v>20.0833358764648</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>51.9823913574219</v>
+        <v>43.0341720581055</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>-33.15059</v>
+        <v>-37.7698543333333</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>48.314288</v>
+        <v>48.9329123333333</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>75.0426763333334</v>
+        <v>63.5810266666667</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>-73.1505966666667</v>
+        <v>-67.7871806666667</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>35.3038753333333</v>
+        <v>23.3089696666667</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>11.1131803333333</v>
+        <v>-0.791725666666667</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>-67.2442983333333</v>
+        <v>-67.967298</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>-19.8970496666667</v>
+        <v>-20.3584213333333</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>65.3064676666667</v>
+        <v>62.170367</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>-59.5540275573731</v>
+        <v>-63.668830871582</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>27.724573135376</v>
+        <v>20.1837730407715</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>27.7347545623779</v>
+        <v>49.0552825927734</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>-28.0857116666667</v>
+        <v>-32.7885323333333</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>53.462442</v>
+        <v>46.6642343333333</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>45.9351413333333</v>
+        <v>68.0273383333333</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>-60.9009296666667</v>
+        <v>-72.3612136666667</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>26.7075563333333</v>
+        <v>27.5223063333333</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>-17.212478</v>
+        <v>6.33389733333333</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>-67.87603</v>
+        <v>-68.2903616666667</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>-11.1472776666667</v>
+        <v>-21.4859</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>48.4235596666667</v>
+        <v>65.1200356666667</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>-66.53466796875</v>
+        <v>-60.9441032409668</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>21.0168743133545</v>
+        <v>22.8211708068848</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>22.0727005004883</v>
+        <v>31.1819972991943</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>-37.3523263333333</v>
+        <v>-30.3021893333333</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>40.8475063333333</v>
+        <v>46.1518223333333</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>49.4348653333333</v>
+        <v>54.036681</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>-69.05793</v>
+        <v>-66.6677956666667</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>36.714619</v>
+        <v>32.1382043333333</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>-18.940145</v>
+        <v>-8.94169</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>-77.0438306666667</v>
+        <v>-70.0075556666667</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>-21.2989476666667</v>
+        <v>-18.7612706666667</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>30.0233706666667</v>
+        <v>45.7635166666667</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>-62.202091217041</v>
+        <v>-60.1290740966797</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>20.0608139038086</v>
+        <v>27.141471862793</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>30.6427631378174</v>
+        <v>30.5249729156494</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>-35.0219206666667</v>
+        <v>-32.2097346666667</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>45.426528</v>
+        <v>54.446902</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>55.7696786666667</v>
+        <v>51.9698296666667</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>-68.7711563333333</v>
+        <v>-63.353461</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>32.4751526666667</v>
+        <v>31.8012533333333</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>-11.3077373333333</v>
+        <v>-14.0491023333333</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>-68.4476396666667</v>
+        <v>-69.0757676666667</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>-22.3385803333333</v>
+        <v>-12.8831993333333</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>41.9860113333333</v>
+        <v>48.465983</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>-61.2443962097168</v>
+        <v>-58.8794555664063</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>9.13625907897949</v>
+        <v>13.6728744506836</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>31.9594230651855</v>
+        <v>46.3358116149902</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>-33.4870033333333</v>
+        <v>-30.9896276666667</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>34.9333116666667</v>
+        <v>41.95329</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>55.5855813333333</v>
+        <v>67.654948</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>-67.2522533333333</v>
+        <v>-63.2176043333333</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>19.4836933333333</v>
+        <v>18.89497</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>-10.547182</v>
+        <v>2.54230666666667</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>-67.366684</v>
+        <v>-65.5955606666667</v>
       </c>
       <c r="O31" s="0" t="n">
-        <v>-33.554343</v>
+        <v>-26.167061</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>45.5799726666667</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>-64.2963790893555</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>19.0664005279541</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>49.4851837158203</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>-36.3722903333333</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>45.4532113333333</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>71.3084463333333</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>-71.647588</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>26.1821116666667</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>5.687536</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>-69.2515306666667</v>
-      </c>
-      <c r="O32" s="0" t="n">
-        <v>-23.55357</v>
-      </c>
-      <c r="P32" s="0" t="n">
-        <v>64.3571713333333</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>-60.3509407043457</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>34.4272079467773</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>37.5764961242676</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>-31.1908966666667</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>61.597385</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>56.4909146666667</v>
-      </c>
-      <c r="K33" s="0" t="n">
-        <v>-66.3649596666667</v>
-      </c>
-      <c r="L33" s="0" t="n">
-        <v>39.3970146666667</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>-7.502486</v>
-      </c>
-      <c r="N33" s="0" t="n">
-        <v>-64.60613</v>
-      </c>
-      <c r="O33" s="0" t="n">
-        <v>-6.80012033333333</v>
-      </c>
-      <c r="P33" s="0" t="n">
-        <v>53.626151</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>-52.4320945739746</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>15.8418779373169</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>41.6021194458008</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>-19.094091</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>35.1557413333333</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>64.4278003333333</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>-56.7924413333333</v>
-      </c>
-      <c r="L34" s="0" t="n">
-        <v>29.2108453333333</v>
-      </c>
-      <c r="M34" s="0" t="n">
-        <v>-1.39152633333333</v>
-      </c>
-      <c r="N34" s="0" t="n">
-        <v>-63.7339833333333</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <v>-25.4114563333333</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <v>52.4123726666667</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>-57.502140045166</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>26.1570491790771</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>45.4410781860352</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>-27.582859</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>51.8710736666667</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>65.009656</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>-60.534953</v>
-      </c>
-      <c r="L35" s="0" t="n">
-        <v>29.21682</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>1.22312833333333</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>-65.8451286666667</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>-14.4716383333333</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>64.561104</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>-65.9189834594727</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>29.9067535400391</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>30.4844284057617</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>-38.830494</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>56.6935553333333</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>53.5648066666667</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>-73.3199716666667</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>38.2906773333333</v>
-      </c>
-      <c r="M36" s="0" t="n">
-        <v>-12.3884306666667</v>
-      </c>
-      <c r="N36" s="0" t="n">
-        <v>-75.8865076666667</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>-9.61225266666667</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>47.531841</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>-61.7227592468262</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>24.8426818847656</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>24.3632659912109</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>-34.1968383333333</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>52.5846213333333</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>45.3694906666667</v>
-      </c>
-      <c r="K37" s="0" t="n">
-        <v>-68.7655666666667</v>
-      </c>
-      <c r="L37" s="0" t="n">
-        <v>32.0550326666667</v>
-      </c>
-      <c r="M37" s="0" t="n">
-        <v>-18.3960276666667</v>
-      </c>
-      <c r="N37" s="0" t="n">
-        <v>-66.0670673333333</v>
-      </c>
-      <c r="O37" s="0" t="n">
-        <v>-17.5643023333333</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>39.6031363333333</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>-60.1077766418457</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>24.6428241729736</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>49.0157051086426</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>-33.936572</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>52.9790023333333</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>71.0373843333333</v>
-      </c>
-      <c r="K38" s="0" t="n">
-        <v>-69.1816483333333</v>
-      </c>
-      <c r="L38" s="0" t="n">
-        <v>32.467012</v>
-      </c>
-      <c r="M38" s="0" t="n">
-        <v>5.29696033333333</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>-64.3466213333333</v>
-      </c>
-      <c r="O38" s="0" t="n">
-        <v>-17.4211693333333</v>
-      </c>
-      <c r="P38" s="0" t="n">
-        <v>64.5603406666667</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>-58.7384910583496</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>23.7910842895508</v>
-      </c>
-      <c r="G39" s="0" t="n">
-        <v>51.4027366638184</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>-30.9485626666667</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>50.2609406666667</v>
-      </c>
-      <c r="J39" s="0" t="n">
-        <v>74.085912</v>
-      </c>
-      <c r="K39" s="0" t="n">
-        <v>-59.3368696666667</v>
-      </c>
-      <c r="L39" s="0" t="n">
-        <v>30.5022633333333</v>
-      </c>
-      <c r="M39" s="0" t="n">
-        <v>7.573549</v>
-      </c>
-      <c r="N39" s="0" t="n">
-        <v>-66.7401373333333</v>
-      </c>
-      <c r="O39" s="0" t="n">
-        <v>-16.60074</v>
-      </c>
-      <c r="P39" s="0" t="n">
-        <v>66.5927963333333</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>-64.5199584960938</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>20.0833358764648</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>43.0341720581055</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>-37.7698543333333</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>48.9329123333333</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>63.5810266666667</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>-67.7871806666667</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>23.3089696666667</v>
-      </c>
-      <c r="M40" s="0" t="n">
-        <v>-0.791725666666667</v>
-      </c>
-      <c r="N40" s="0" t="n">
-        <v>-67.967298</v>
-      </c>
-      <c r="O40" s="0" t="n">
-        <v>-20.3584213333333</v>
-      </c>
-      <c r="P40" s="0" t="n">
-        <v>62.170367</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>-63.668830871582</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>20.1837730407715</v>
-      </c>
-      <c r="G41" s="0" t="n">
-        <v>49.0552825927734</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>-32.7885323333333</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>46.6642343333333</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>68.0273383333333</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>-72.3612136666667</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>27.5223063333333</v>
-      </c>
-      <c r="M41" s="0" t="n">
-        <v>6.33389733333333</v>
-      </c>
-      <c r="N41" s="0" t="n">
-        <v>-68.2903616666667</v>
-      </c>
-      <c r="O41" s="0" t="n">
-        <v>-21.4859</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <v>65.1200356666667</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>-60.9441032409668</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>22.8211708068848</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>31.1819972991943</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>-30.3021893333333</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>46.1518223333333</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>54.036681</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>-66.6677956666667</v>
-      </c>
-      <c r="L42" s="0" t="n">
-        <v>32.1382043333333</v>
-      </c>
-      <c r="M42" s="0" t="n">
-        <v>-8.94169</v>
-      </c>
-      <c r="N42" s="0" t="n">
-        <v>-70.0075556666667</v>
-      </c>
-      <c r="O42" s="0" t="n">
-        <v>-18.7612706666667</v>
-      </c>
-      <c r="P42" s="0" t="n">
-        <v>45.7635166666667</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>-60.1290740966797</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>27.141471862793</v>
-      </c>
-      <c r="G43" s="0" t="n">
-        <v>30.5249729156494</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>-32.2097346666667</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>54.446902</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>51.9698296666667</v>
-      </c>
-      <c r="K43" s="0" t="n">
-        <v>-63.353461</v>
-      </c>
-      <c r="L43" s="0" t="n">
-        <v>31.8012533333333</v>
-      </c>
-      <c r="M43" s="0" t="n">
-        <v>-14.0491023333333</v>
-      </c>
-      <c r="N43" s="0" t="n">
-        <v>-69.0757676666667</v>
-      </c>
-      <c r="O43" s="0" t="n">
-        <v>-12.8831993333333</v>
-      </c>
-      <c r="P43" s="0" t="n">
-        <v>48.465983</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>-58.8794555664063</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>13.6728744506836</v>
-      </c>
-      <c r="G44" s="0" t="n">
-        <v>46.3358116149902</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>-30.9896276666667</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>41.95329</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>67.654948</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>-63.2176043333333</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>18.89497</v>
-      </c>
-      <c r="M44" s="0" t="n">
-        <v>2.54230666666667</v>
-      </c>
-      <c r="N44" s="0" t="n">
-        <v>-65.5955606666667</v>
-      </c>
-      <c r="O44" s="0" t="n">
-        <v>-26.167061</v>
-      </c>
-      <c r="P44" s="0" t="n">
         <v>63.9642003333333</v>
       </c>
     </row>
